--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -1,38 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B6597B-C68A-4EF7-BFE7-200BD2BFAAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27900" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
     <sheet name="6月" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -40,70 +18,99 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>1． 第一个记忆周期：5分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天一遍项目</t>
+  </si>
+  <si>
+    <t>学完的当天要复习一遍，之后就是随时检测</t>
+  </si>
+  <si>
+    <t>当日新增</t>
+  </si>
+  <si>
+    <t>0525</t>
+  </si>
+  <si>
+    <t>0526</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>0528</t>
+  </si>
+  <si>
+    <t>0529</t>
+  </si>
+  <si>
+    <t>0530</t>
+  </si>
+  <si>
+    <t>0531</t>
+  </si>
+  <si>
+    <t>casrel</t>
+  </si>
+  <si>
+    <t>当日已完成</t>
   </si>
   <si>
     <t>2． 第二个记忆周期：30分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spert</t>
+  </si>
+  <si>
+    <t>模型训练代码及整个流程</t>
   </si>
   <si>
     <t>3． 第三个记忆周期：12小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albert,Roberta,XLnet</t>
+  </si>
+  <si>
+    <t>GPT系列</t>
   </si>
   <si>
     <t>4． 第四个记忆周期：1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>项目</t>
   </si>
   <si>
     <t>5． 第五个记忆周期：2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>链表</t>
   </si>
   <si>
     <t>6． 第六个记忆周期：4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7． 第七个记忆周期：7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8． 第八个记忆周期：15天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>casrel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型训练代码及整个流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0527</t>
-  </si>
-  <si>
-    <t>0528</t>
-  </si>
-  <si>
-    <t>0529</t>
-  </si>
-  <si>
-    <t>0530</t>
-  </si>
-  <si>
-    <t>0531</t>
+  </si>
+  <si>
+    <t>学完马上复习一遍</t>
+  </si>
+  <si>
+    <t>13 .1</t>
+  </si>
+  <si>
+    <t>为什么除根号dk</t>
   </si>
   <si>
     <t>0601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0602</t>
@@ -193,147 +200,225 @@
     <t>0630</t>
   </si>
   <si>
-    <t>每天一遍项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Albert,Roberta,XLnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPT系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学完的当天要复习一遍，之后就是随时检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>连着三天</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>隔一天</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>隔两天</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>隔7天</t>
   </si>
   <si>
     <t>优化算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连着三天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔一天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔两天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学完马上复习一遍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>word2vec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bacthnorm和layernorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">13 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bert相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 .1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么除根号dk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rouge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,13 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,12 +445,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -373,30 +650,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,7 +1009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -480,7 +1044,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -654,24 +1218,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="47.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -691,308 +1250,309 @@
     <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="7">
         <v>3</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="7">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="7">
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="7">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="7">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="7">
         <v>4</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="7">
         <v>6.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>6.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="7">
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2">
+        <v>17</v>
+      </c>
+      <c r="G5" s="7">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="7">
         <v>6.4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="7">
         <v>6.6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="7">
         <v>6.4</v>
       </c>
       <c r="L5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="7">
         <v>6.2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>6.7</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="7">
         <v>6.2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7">
         <v>6.1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="7">
         <v>6.2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="7">
         <v>6.5</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>4</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>7</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7">
         <v>6.2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="7">
         <v>6.4</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="7">
         <v>6.6</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7">
         <v>6.3</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>6.5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7">
         <v>6.4</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
         <v>6.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C13B6A-225C-467E-94D4-64DA66380D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
@@ -1026,161 +1586,161 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>6.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>9</v>
       </c>
-      <c r="J2" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="J2" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="K2" s="2">
         <v>7</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="5">
         <v>3</v>
       </c>
       <c r="P2" s="1">
         <v>6.5</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S2" s="1">
         <v>7</v>
@@ -1189,70 +1749,70 @@
         <v>9</v>
       </c>
       <c r="U2" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="V2" s="5"/>
+        <v>9.2</v>
+      </c>
+      <c r="V2" s="4"/>
       <c r="X2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>6.6</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <v>6.8</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>10</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>8</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>6.8</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>10</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="5">
         <v>4</v>
       </c>
       <c r="P3" s="1">
         <v>6.6</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="S3" s="1">
         <v>8</v>
@@ -1264,274 +1824,274 @@
         <v>10</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>6.7</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="5">
         <v>5</v>
       </c>
       <c r="P4" s="1">
         <v>6.7</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>6.4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>7</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="J5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="5">
         <v>6.4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
         <v>6.7</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>6.2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="1">
+      <c r="K6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5">
         <v>6.2</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
         <v>9</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>9</v>
       </c>
-      <c r="H7" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>73</v>
+      <c r="H7" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
         <v>6.8</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>6.8</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>10</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="6">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G9" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H9" s="4">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9.2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="H9" s="2">
         <v>6.4</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
         <v>10</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -254,11 +254,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,10 +281,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,14 +328,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -326,6 +365,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -341,9 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,68 +403,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,19 +456,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,109 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,7 +645,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,32 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -725,11 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,145 +709,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -1733,7 +1714,7 @@
       <c r="O2" s="5">
         <v>3</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="5">
         <v>6.5</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1805,7 +1786,7 @@
       <c r="O3" s="5">
         <v>4</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="5">
         <v>6.6</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1868,7 +1849,7 @@
       <c r="O4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="5">
         <v>6.7</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1921,14 +1902,17 @@
       <c r="O5" s="5">
         <v>6.4</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="5" t="s">
         <v>64</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>6.6</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:17">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1959,8 +1943,11 @@
       <c r="O6" s="5">
         <v>6.2</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="5" t="s">
         <v>63</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -1988,7 +1975,7 @@
       <c r="O7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="5" t="s">
         <v>65</v>
       </c>
     </row>

--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C996FE4-1036-46DD-8CC6-5F5067ED6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
     <sheet name="6月" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>1． 第一个记忆周期：5分钟</t>
   </si>
@@ -107,9 +126,6 @@
     <t>13 .1</t>
   </si>
   <si>
-    <t>为什么除根号dk</t>
-  </si>
-  <si>
     <t>0601</t>
   </si>
   <si>
@@ -246,19 +262,29 @@
   </si>
   <si>
     <t>Rouge</t>
+  </si>
+  <si>
+    <t>bert为什么除根号dk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,151 +293,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,7 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,192 +335,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -631,253 +354,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -886,62 +367,21 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1199,19 +639,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1231,7 +671,7 @@
     <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1300,7 +740,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +772,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1358,7 +798,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1413,7 +853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1465,7 +905,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +925,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1499,7 +939,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1507,39 +947,38 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.375" style="1" customWidth="1"/>
@@ -1567,7 +1006,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1580,103 +1019,103 @@
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -1697,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K2" s="2">
         <v>7</v>
@@ -1706,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -1717,11 +1156,11 @@
       <c r="P2" s="5">
         <v>6.5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="S2" s="1">
         <v>7</v>
@@ -1730,25 +1169,33 @@
         <v>9</v>
       </c>
       <c r="U2" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="V2" s="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="X2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1789,11 +1236,11 @@
       <c r="P3" s="5">
         <v>6.6</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>65</v>
+      <c r="Q3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="S3" s="1">
         <v>8</v>
@@ -1804,16 +1251,25 @@
       <c r="U3" s="1">
         <v>10</v>
       </c>
+      <c r="V3" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="X3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1832,19 +1288,19 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" s="5">
         <v>5</v>
@@ -1852,22 +1308,34 @@
       <c r="P4" s="5">
         <v>6.7</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="R4" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1885,34 +1353,40 @@
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="N5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O5" s="5">
         <v>6.4</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="5">
         <v>6.6</v>
       </c>
+      <c r="R5" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="S5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
+        <v>62</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1929,28 +1403,37 @@
         <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="5">
         <v>6.2</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="1">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="5">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="R6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>6</v>
       </c>
@@ -1964,22 +1447,28 @@
         <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>64</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>7</v>
       </c>
@@ -1999,10 +1488,13 @@
         <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
+        <v>64</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>8</v>
       </c>
@@ -2010,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G9" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H9" s="2">
         <v>6.4</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>9</v>
       </c>
@@ -2037,48 +1529,48 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C996FE4-1036-46DD-8CC6-5F5067ED6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84922F42-A8D7-4B50-82AB-8D6F79EAA183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
     <sheet name="6月" sheetId="2" r:id="rId2"/>
+    <sheet name="7月" sheetId="3" r:id="rId3"/>
+    <sheet name="8月" sheetId="4" r:id="rId4"/>
+    <sheet name="9月" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>1． 第一个记忆周期：5分钟</t>
   </si>
@@ -277,6 +280,152 @@
   </si>
   <si>
     <t>6.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0701</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0703</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0706</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>0711</t>
+  </si>
+  <si>
+    <t>0712</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0714</t>
+  </si>
+  <si>
+    <t>0715</t>
+  </si>
+  <si>
+    <t>0716</t>
+  </si>
+  <si>
+    <t>0717</t>
+  </si>
+  <si>
+    <t>0718</t>
+  </si>
+  <si>
+    <t>0719</t>
+  </si>
+  <si>
+    <t>0720</t>
+  </si>
+  <si>
+    <t>0721</t>
+  </si>
+  <si>
+    <t>0722</t>
+  </si>
+  <si>
+    <t>0723</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>0726</t>
+  </si>
+  <si>
+    <t>0727</t>
+  </si>
+  <si>
+    <t>0728</t>
+  </si>
+  <si>
+    <t>0729</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0731</t>
+  </si>
+  <si>
+    <t>13 .1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似度模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMM与CRF,crf+lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过拟合与数据不均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型评估</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +453,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -369,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -966,19 +1121,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.375" style="1" customWidth="1"/>
@@ -1162,22 +1317,22 @@
       <c r="R2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="5">
         <v>7</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="5">
         <v>9</v>
       </c>
       <c r="U2" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>77</v>
       </c>
       <c r="AA2" s="1" t="s">
@@ -1189,8 +1344,11 @@
       <c r="AC2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="8" t="s">
         <v>77</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -1242,29 +1400,32 @@
       <c r="R3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="5">
         <v>8</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="5">
         <v>6.8</v>
       </c>
       <c r="U3" s="1">
         <v>10</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="8" t="s">
         <v>78</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -1314,23 +1475,32 @@
       <c r="R4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>29</v>
+      <c r="T4" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="X4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AA4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>79</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -1379,11 +1549,26 @@
       <c r="R5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>77</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -1432,6 +1617,21 @@
       <c r="T6" s="10" t="s">
         <v>78</v>
       </c>
+      <c r="U6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -1467,6 +1667,21 @@
       <c r="T7" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="U7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -1493,6 +1708,21 @@
       <c r="S8" s="10" t="s">
         <v>79</v>
       </c>
+      <c r="T8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -1513,6 +1743,21 @@
       <c r="N9" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="T9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -1528,6 +1773,16 @@
         <v>10</v>
       </c>
       <c r="H10" s="4"/>
+      <c r="T10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" s="8"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
@@ -1536,6 +1791,12 @@
       <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="T11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -1544,6 +1805,9 @@
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="T12" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -1552,6 +1816,9 @@
       <c r="C13" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="T13" s="9" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -1567,10 +1834,189 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87C68F-167F-4C13-AFF3-39A01EBDDC07}">
+  <dimension ref="B1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD561B4A-8932-48B4-94FF-51FCF15DC723}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFF4B72-3366-4DDC-A100-53275F457327}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84922F42-A8D7-4B50-82AB-8D6F79EAA183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3180A3-2931-4658-B1E7-60E02F483E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1323,7 +1323,7 @@
       <c r="T2" s="5">
         <v>9</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="5">
         <v>9.1999999999999993</v>
       </c>
       <c r="V2" s="8" t="s">
@@ -1406,7 +1406,7 @@
       <c r="T3" s="5">
         <v>6.8</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="5">
         <v>10</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1481,7 +1481,7 @@
       <c r="T4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="5" t="s">
         <v>64</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -1555,7 +1555,7 @@
       <c r="T5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="10" t="s">
         <v>78</v>
       </c>
       <c r="V5" s="8" t="s">
@@ -1617,7 +1617,7 @@
       <c r="T6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1667,7 +1667,7 @@
       <c r="T7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="10" t="s">
         <v>113</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1711,7 +1711,7 @@
       <c r="T8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="10" t="s">
         <v>116</v>
       </c>
       <c r="V8" s="8" t="s">
@@ -1746,7 +1746,7 @@
       <c r="T9" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="V9" s="8" t="s">
@@ -1776,7 +1776,7 @@
       <c r="T10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="8" t="s">
+      <c r="U10" s="10" t="s">
         <v>120</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -1794,7 +1794,7 @@
       <c r="T11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U11" s="8" t="s">
+      <c r="U11" s="10" t="s">
         <v>122</v>
       </c>
     </row>

--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3180A3-2931-4658-B1E7-60E02F483E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656B15A-2E6C-4E5D-BCD1-A7FDBD3AA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t>1． 第一个记忆周期：5分钟</t>
   </si>
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -525,6 +525,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1123,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1326,10 +1327,10 @@
       <c r="U2" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="5" t="s">
         <v>61</v>
       </c>
       <c r="Y2" s="8" t="s">
@@ -1409,10 +1410,10 @@
       <c r="U3" s="5">
         <v>10</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="5" t="s">
         <v>66</v>
       </c>
       <c r="Y3" s="8" t="s">
@@ -1484,10 +1485,10 @@
       <c r="U4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="Y4" s="8" t="s">
@@ -1558,11 +1559,14 @@
       <c r="U5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="10" t="s">
         <v>113</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>113</v>
@@ -1620,10 +1624,10 @@
       <c r="U6" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="10" t="s">
         <v>116</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -1670,10 +1674,10 @@
       <c r="U7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="10" t="s">
         <v>118</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -1714,10 +1718,10 @@
       <c r="U8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="10" t="s">
         <v>120</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -1749,10 +1753,10 @@
       <c r="U9" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="10" t="s">
         <v>122</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -1779,7 +1783,7 @@
       <c r="U10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="10" t="s">
         <v>122</v>
       </c>
       <c r="X10" s="8"/>

--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656B15A-2E6C-4E5D-BCD1-A7FDBD3AA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D476F91-6057-4A57-90FD-5589AE4C446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -525,7 +525,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1124,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1333,7 +1332,7 @@
       <c r="X2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="AA2" s="1" t="s">
@@ -1416,7 +1415,7 @@
       <c r="X3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="10" t="s">
         <v>78</v>
       </c>
       <c r="AA3" s="1" t="s">
@@ -1491,7 +1490,7 @@
       <c r="X4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -1565,7 +1564,7 @@
       <c r="X5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="AA5" s="8" t="s">

--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03F9B9-65BB-4FA4-A819-560E2F1CC9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -392,14 +398,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,155 +411,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,7 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,210 +450,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -797,251 +475,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1058,61 +494,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1370,19 +762,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.125" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1402,7 +794,7 @@
     <col min="17" max="17" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1471,7 +863,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +895,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1529,7 +921,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1584,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1613,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1636,7 +1028,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1048,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1670,7 +1062,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1678,33 +1070,32 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="2" customWidth="1"/>
@@ -1730,7 +1121,7 @@
     <col min="25" max="25" width="6.375" style="2" customWidth="1"/>
     <col min="26" max="26" width="6.5" style="2" customWidth="1"/>
     <col min="27" max="27" width="5.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="6.07142857142857" style="2" customWidth="1"/>
+    <col min="28" max="28" width="6.125" style="2" customWidth="1"/>
     <col min="29" max="29" width="5.875" style="2" customWidth="1"/>
     <col min="30" max="30" width="6.5" style="2" customWidth="1"/>
     <col min="31" max="31" width="5.625" style="2" customWidth="1"/>
@@ -1738,7 +1129,7 @@
     <col min="33" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1236,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1259,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K2" s="3">
         <v>7</v>
@@ -1877,7 +1268,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
@@ -1901,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="U2" s="6">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>64</v>
@@ -1921,17 +1312,17 @@
       <c r="AC2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="10" t="s">
         <v>64</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>69</v>
       </c>
@@ -2001,14 +1392,14 @@
       <c r="AA3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="10" t="s">
         <v>71</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -2076,14 +1467,14 @@
       <c r="AA4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="10" t="s">
         <v>75</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -2154,7 +1545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -2216,7 +1607,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -2230,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>63</v>
@@ -2266,7 +1657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -2307,7 +1698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -2315,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G9" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H9" s="3">
         <v>6.4</v>
@@ -2342,7 +1733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:24">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -2367,7 +1758,7 @@
       </c>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -2381,7 +1772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
@@ -2392,7 +1783,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
@@ -2411,7 +1802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>66</v>
       </c>
@@ -2419,7 +1810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
@@ -2427,7 +1818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
@@ -2435,7 +1826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
@@ -2443,7 +1834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2451,7 +1842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -2460,23 +1851,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
@@ -2572,39 +1962,35 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/编程练习/记忆曲线.xlsx
+++ b/编程练习/记忆曲线.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\law_gen\编程练习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A03F9B9-65BB-4FA4-A819-560E2F1CC9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E61563-0B3E-41F5-BFF1-C0917C959FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
   <si>
     <t>1． 第一个记忆周期：5分钟</t>
   </si>
@@ -393,6 +393,14 @@
   </si>
   <si>
     <t>0731</t>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -479,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -493,6 +501,7 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1089,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1327,7 @@
       <c r="AF2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1395,7 +1404,7 @@
       <c r="AF3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1470,7 +1479,7 @@
       <c r="AF4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1541,7 +1550,7 @@
       <c r="AA5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1603,7 +1612,7 @@
       <c r="AA6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1653,7 +1662,7 @@
       <c r="AA7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1848,6 +1857,14 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1858,108 +1875,328 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:AF1"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>122</v>
       </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
